--- a/01_Requirements/LedgerTypes/02_Services or dues to subcontractors ledgers.xlsx
+++ b/01_Requirements/LedgerTypes/02_Services or dues to subcontractors ledgers.xlsx
@@ -37,32 +37,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t xml:space="preserve">This screen is same for all Individuals/Firms/ HUF's/ LLP / Company </t>
   </si>
   <si>
-    <t xml:space="preserve">Service Providers/ Sub Contractors Creation </t>
-  </si>
-  <si>
     <t xml:space="preserve">GST Rates to be displayed </t>
   </si>
   <si>
-    <t xml:space="preserve">Name of the Sundry Creditors </t>
-  </si>
-  <si>
-    <t>XYZ &amp; Consultants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GST Registration status </t>
-  </si>
-  <si>
-    <t>Regd/ Reverse Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GST Registration Number </t>
-  </si>
-  <si>
     <t xml:space="preserve">GST Number </t>
   </si>
   <si>
@@ -78,10 +60,67 @@
     <t>Opening Balance</t>
   </si>
   <si>
-    <t xml:space="preserve">This will enable for bank payment when we type for payment entry with this ledger name automatically </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If Supplier is un registered GST column automatically has to come as Not Applicable ( NA) </t>
+    <t>Name of the Service Provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC &amp; Co </t>
+  </si>
+  <si>
+    <t>Nature of the services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As per Below List ( Drop down box) </t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door No </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street No </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pin Code </t>
+  </si>
+  <si>
+    <t>GST Registration Number ( if selected other than unregd)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is reverse Charge scheme Applicable </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the bank account </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Account no </t>
+  </si>
+  <si>
+    <t>Bank IFSC Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is TDS is applicable </t>
+  </si>
+  <si>
+    <t>Applicable section of TDS</t>
+  </si>
+  <si>
+    <t>Drop Down list of TDS Rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit period in No. of days </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interest Clause if any </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services ledgers Creation </t>
   </si>
 </sst>
 </file>
@@ -110,7 +149,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,12 +164,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -237,11 +282,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -252,23 +312,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,6 +357,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -297,32 +384,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,19 +707,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:J22"/>
+  <dimension ref="D2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="55.5703125" style="1" customWidth="1"/>
-    <col min="5" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="60.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:10" ht="24.95" customHeight="1">
@@ -660,168 +727,327 @@
     </row>
     <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
     <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
+      <c r="D4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="4:10" ht="24.95" customHeight="1">
       <c r="D5" s="2"/>
-      <c r="I5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="14"/>
+      <c r="I5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="23"/>
     </row>
     <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D6" s="2"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D7" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D8" s="2"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D10" s="2"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D12" s="2"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
+      <c r="E12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D14" s="2"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-    </row>
-    <row r="16" spans="4:10" ht="24.95" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D16" s="2"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D17" s="2"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-    </row>
-    <row r="18" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="4:10" ht="24.95" customHeight="1">
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
+    </row>
+    <row r="19" spans="4:10" ht="24.95" customHeight="1">
+      <c r="D19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+    </row>
     <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D20" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
+      <c r="D20" s="2"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+    </row>
     <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="9"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D23" s="2"/>
+      <c r="E23" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="4:10" ht="24.95" customHeight="1">
+      <c r="D24" s="2"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" spans="4:10" ht="24.95" customHeight="1">
+      <c r="D25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D26" s="2"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="25"/>
+    </row>
+    <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D28" s="2"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="25"/>
+    </row>
+    <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+    </row>
+    <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D30" s="2"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="25"/>
+    </row>
+    <row r="32" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D32" s="2"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="25"/>
+    </row>
+    <row r="33" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
+      <c r="D33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="D22:J22"/>
+  <mergeCells count="20">
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I5:J33"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="E21:H21"/>
     <mergeCell ref="D4:J4"/>
-    <mergeCell ref="I5:J18"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="E27:H27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/01_Requirements/LedgerTypes/02_Services or dues to subcontractors ledgers.xlsx
+++ b/01_Requirements/LedgerTypes/02_Services or dues to subcontractors ledgers.xlsx
@@ -120,7 +120,7 @@
     <t xml:space="preserve">Interest Clause if any </t>
   </si>
   <si>
-    <t xml:space="preserve">Services ledgers Creation </t>
+    <t>Service Providers/ Sub Contractors Creation</t>
   </si>
 </sst>
 </file>
@@ -318,6 +318,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,63 +392,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D2:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="24.95" customHeight="1"/>
@@ -727,40 +727,40 @@
     </row>
     <row r="3" spans="4:10" ht="24.95" customHeight="1" thickBot="1"/>
     <row r="4" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" spans="4:10" ht="24.95" customHeight="1">
       <c r="D5" s="2"/>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="23"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D6" s="2"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="8" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D8" s="2"/>
@@ -768,21 +768,21 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
     </row>
     <row r="9" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D10" s="2"/>
@@ -790,43 +790,43 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D12" s="2"/>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D13" s="2"/>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D14" s="2"/>
@@ -834,21 +834,21 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
     </row>
     <row r="16" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D16" s="2"/>
@@ -856,21 +856,21 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="25"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="4:10" ht="24.95" customHeight="1">
       <c r="D18" s="2"/>
@@ -878,83 +878,83 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="25"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="4:10" ht="24.95" customHeight="1">
       <c r="D19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="25"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
     </row>
     <row r="20" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D20" s="2"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
     </row>
     <row r="21" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D22" s="2"/>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D23" s="2"/>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="4:10" ht="24.95" customHeight="1">
       <c r="D24" s="2"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="4:10" ht="24.95" customHeight="1">
       <c r="D25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15" t="s">
+      <c r="F25" s="21"/>
+      <c r="G25" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="25"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D26" s="2"/>
@@ -962,72 +962,77 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="25"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D27" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D28" s="2"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D30" s="2"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="25"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="25"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="12"/>
     </row>
     <row r="32" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D32" s="2"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="25"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="12"/>
     </row>
     <row r="33" spans="4:10" ht="24.95" customHeight="1" thickBot="1">
       <c r="D33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E13:H13"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="I5:J33"/>
     <mergeCell ref="E12:H12"/>
@@ -1035,11 +1040,6 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="E21:H21"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E13:H13"/>
     <mergeCell ref="E29:H29"/>
     <mergeCell ref="E31:H31"/>
     <mergeCell ref="E33:H33"/>
